--- a/output/damage/PHL_osm_fl_rcp8p5_damage_0.xlsx
+++ b/output/damage/PHL_osm_fl_rcp8p5_damage_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43751.02306269954</v>
+        <v>634.6096877408417</v>
       </c>
       <c r="F2" t="n">
-        <v>9410.713135165033</v>
+        <v>475.9572658056313</v>
       </c>
       <c r="G2" t="n">
-        <v>115037.970232648</v>
+        <v>793.262109676052</v>
       </c>
     </row>
     <row r="3">
@@ -500,12 +500,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rp0002</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>44522.30277754591</v>
+        <v>693.0587896540302</v>
       </c>
       <c r="F3" t="n">
-        <v>9989.172921299814</v>
+        <v>519.7940922405228</v>
       </c>
       <c r="G3" t="n">
-        <v>116002.069876206</v>
+        <v>866.3234870675378</v>
       </c>
     </row>
     <row r="4">
@@ -529,12 +529,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rp0005</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>54808.60547351135</v>
+        <v>762.3631567440605</v>
       </c>
       <c r="F4" t="n">
-        <v>17703.89994327389</v>
+        <v>571.7723675580454</v>
       </c>
       <c r="G4" t="n">
-        <v>128859.9482461628</v>
+        <v>952.9539459300755</v>
       </c>
     </row>
     <row r="5">
@@ -558,12 +558,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rp0010</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>63667.50735075192</v>
+        <v>900.975670612553</v>
       </c>
       <c r="F5" t="n">
-        <v>23558.48059196413</v>
+        <v>675.7317529594148</v>
       </c>
       <c r="G5" t="n">
-        <v>141969.7407598493</v>
+        <v>1126.219588265691</v>
       </c>
     </row>
     <row r="6">
@@ -587,12 +587,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rp0025</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>86045.91380764048</v>
+        <v>698.0706565149256</v>
       </c>
       <c r="F6" t="n">
-        <v>37199.49791080396</v>
+        <v>523.5529923861943</v>
       </c>
       <c r="G6" t="n">
-        <v>178047.1926667308</v>
+        <v>872.5883206436573</v>
       </c>
     </row>
     <row r="7">
@@ -616,12 +616,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rp0050</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>164617.0244390724</v>
+        <v>824.992594063094</v>
       </c>
       <c r="F7" t="n">
-        <v>55779.47250544436</v>
+        <v>618.7444455473207</v>
       </c>
       <c r="G7" t="n">
-        <v>380309.159888658</v>
+        <v>1031.240742578868</v>
       </c>
     </row>
     <row r="8">
@@ -645,12 +645,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rp0100</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>195153.0012913212</v>
+        <v>1034.413791017572</v>
       </c>
       <c r="F8" t="n">
-        <v>73688.23666408975</v>
+        <v>775.8103432631789</v>
       </c>
       <c r="G8" t="n">
-        <v>431355.3621431543</v>
+        <v>1293.017238771965</v>
       </c>
     </row>
     <row r="9">
@@ -674,12 +674,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rp0250</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>223554.3836011574</v>
+        <v>1137.856304025859</v>
       </c>
       <c r="F9" t="n">
-        <v>90128.04191990987</v>
+        <v>853.392228019394</v>
       </c>
       <c r="G9" t="n">
-        <v>479392.9605516829</v>
+        <v>1422.320380032323</v>
       </c>
     </row>
     <row r="10">
@@ -703,12 +703,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rp0500</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>249709.869204379</v>
+        <v>1344.737550354</v>
       </c>
       <c r="F10" t="n">
-        <v>105454.4261671522</v>
+        <v>1008.5531627655</v>
       </c>
       <c r="G10" t="n">
-        <v>523150.7214449781</v>
+        <v>1680.921937942501</v>
       </c>
     </row>
     <row r="11">
@@ -732,27 +732,4087 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>425.1884907863638</v>
+      </c>
+      <c r="F11" t="n">
+        <v>318.8913680897729</v>
+      </c>
+      <c r="G11" t="n">
+        <v>531.4856134829549</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>467.7062059584707</v>
+      </c>
+      <c r="F12" t="n">
+        <v>350.779654468853</v>
+      </c>
+      <c r="G12" t="n">
+        <v>584.6327574480882</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>552.7454159911163</v>
+      </c>
+      <c r="F13" t="n">
+        <v>414.5590619933372</v>
+      </c>
+      <c r="G13" t="n">
+        <v>690.9317699888954</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1232.856710410481</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1615.416773617068</v>
+      </c>
+      <c r="G15" t="n">
+        <v>33776.8961756296</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1972.570736656769</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1615.416773617068</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33776.8961756296</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>721.5129167964085</v>
+      </c>
+      <c r="F17" t="n">
+        <v>541.1346875973064</v>
+      </c>
+      <c r="G17" t="n">
+        <v>901.8911459955106</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>787.9660183171925</v>
+      </c>
+      <c r="F18" t="n">
+        <v>590.9745137378945</v>
+      </c>
+      <c r="G18" t="n">
+        <v>984.9575228964908</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>866.7609012378534</v>
+      </c>
+      <c r="F19" t="n">
+        <v>650.0706759283901</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1083.451126547317</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1024.354964356821</v>
+      </c>
+      <c r="F20" t="n">
+        <v>768.2662232676161</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1280.443705446027</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>793.6642084760493</v>
+      </c>
+      <c r="F21" t="n">
+        <v>595.248156357037</v>
+      </c>
+      <c r="G21" t="n">
+        <v>992.0802605950618</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>937.9667918353309</v>
+      </c>
+      <c r="F22" t="n">
+        <v>703.4750938764982</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1172.458489794164</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1176.066054378146</v>
+      </c>
+      <c r="F23" t="n">
+        <v>882.0495407836092</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1470.082567972682</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1293.673948999254</v>
+      </c>
+      <c r="F24" t="n">
+        <v>970.2554617494407</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1617.092436249068</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1528.885440963825</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1146.664080722869</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1911.106801204782</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>483.4136542535937</v>
+      </c>
+      <c r="F26" t="n">
+        <v>362.5602406901953</v>
+      </c>
+      <c r="G26" t="n">
+        <v>604.2670678169922</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>531.7537304956592</v>
+      </c>
+      <c r="F27" t="n">
+        <v>398.8152978717444</v>
+      </c>
+      <c r="G27" t="n">
+        <v>664.6921631195739</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>628.4381802574363</v>
+      </c>
+      <c r="F28" t="n">
+        <v>471.3286351930773</v>
+      </c>
+      <c r="G28" t="n">
+        <v>785.5477253217956</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1232.856710410481</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1615.416773617068</v>
+      </c>
+      <c r="G30" t="n">
+        <v>33776.8961756296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1972.570736656769</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1615.416773617068</v>
+      </c>
+      <c r="G31" t="n">
+        <v>33776.8961756296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2687.881936732328</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2015.911452549246</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3359.85242091541</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2935.44242672416</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2201.581820043121</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3669.3030334052</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3228.980265866055</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2421.735199399541</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4036.225332332568</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3816.071952976149</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2862.053964732111</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4770.089941220185</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2956.670130405561</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2217.502597804171</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3695.837663006951</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3494.246517752026</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2620.68488831402</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4367.808147190033</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4381.247556873695</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3285.935667655271</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5476.559446092119</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4819.377115208956</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3614.532836406717</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6024.221394011195</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5695.620223053173</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4271.715167289879</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7119.525278816467</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1800.88089761066</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1350.660673207995</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2251.101122013325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1980.964184723834</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1485.723138542876</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2476.205230904792</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2341.146767776488</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1755.860075832366</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2926.433459720611</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1232.856710410481</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1615.416773617068</v>
+      </c>
+      <c r="G45" t="n">
+        <v>33776.8961756296</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1972.570736656769</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1615.416773617068</v>
+      </c>
+      <c r="G46" t="n">
+        <v>33776.8961756296</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4470.736960169525</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3353.052720127144</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5588.421200211906</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>4882.502751426591</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3661.877063569944</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6103.128439283239</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5370.742375617589</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4028.056781713192</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6713.427969521986</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>6347.248251378739</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4760.436188534054</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7934.060314223423</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4917.810656186477</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3688.357992139858</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6147.263320233097</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>5811.958048220383</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4358.968536165287</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7264.947560275477</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>7287.301245076325</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5465.475933807244</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9109.126556345407</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>8016.039357797704</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6012.029518348279</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10020.04919724713</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>9473.488955861307</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7105.11671689598</v>
+      </c>
+      <c r="G55" t="n">
+        <v>11841.86119482664</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2995.393763313582</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2246.545322485186</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3744.242204141977</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3294.925151431193</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2471.193863573395</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4118.656439288991</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3894.014555045571</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2920.510916284179</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4867.518193806965</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1274.452957707172</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1669.920492528754</v>
+      </c>
+      <c r="G60" t="n">
+        <v>34916.51938923759</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2039.124732331475</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1669.920492528754</v>
+      </c>
+      <c r="G61" t="n">
+        <v>34916.51938923759</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>7768.207104302592</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5826.155328226944</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9710.25888037824</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>8483.677948024659</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6362.758461018495</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10604.59743503082</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>9332.027236080005</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6999.020427060003</v>
+      </c>
+      <c r="G64" t="n">
+        <v>11665.0340451</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>11028.7720790585</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8271.579059293874</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13785.96509882312</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>8545.02781473285</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6408.770861049637</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10681.28476841606</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>10098.66923559337</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7574.001926695027</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12623.33654449171</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>12662.17758001323</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9496.633185009918</v>
+      </c>
+      <c r="G68" t="n">
+        <v>15827.72197501653</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>13928.40921807489</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10446.30691355617</v>
+      </c>
+      <c r="G69" t="n">
+        <v>17410.51152259361</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>16460.82622733041</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12345.61967049781</v>
+      </c>
+      <c r="G70" t="n">
+        <v>20576.03278416302</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>5204.698759882736</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3903.524069912052</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6505.873449853421</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>5725.154755810669</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4293.866066858001</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7156.443444763335</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>6766.113014534338</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5074.584760900753</v>
+      </c>
+      <c r="G73" t="n">
+        <v>8457.641268167923</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1440.016368493273</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1886.858850914354</v>
+      </c>
+      <c r="G75" t="n">
+        <v>39452.50324639103</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2304.026189589236</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1886.858850914354</v>
+      </c>
+      <c r="G76" t="n">
+        <v>39452.50324639103</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>10672.61076071598</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8004.458070536986</v>
+      </c>
+      <c r="G77" t="n">
+        <v>13340.76345089498</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>11655.58427354333</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8741.688205157498</v>
+      </c>
+      <c r="G78" t="n">
+        <v>14569.48034192916</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>12821.11727478507</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9615.837956088801</v>
+      </c>
+      <c r="G79" t="n">
+        <v>16026.39659348134</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>15152.24684255003</v>
+      </c>
+      <c r="F80" t="n">
+        <v>11364.18513191252</v>
+      </c>
+      <c r="G80" t="n">
+        <v>18940.30855318754</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>11739.87183678758</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8804.903877590685</v>
+      </c>
+      <c r="G81" t="n">
+        <v>14674.83979598447</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>13874.39398893077</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10405.79549169808</v>
+      </c>
+      <c r="G82" t="n">
+        <v>17342.99248616347</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>17396.35553996705</v>
+      </c>
+      <c r="F83" t="n">
+        <v>13047.26665497528</v>
+      </c>
+      <c r="G83" t="n">
+        <v>21745.44442495881</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>19136.0101635482</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14352.00762266115</v>
+      </c>
+      <c r="G84" t="n">
+        <v>23920.01270443524</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>22615.25584542901</v>
+      </c>
+      <c r="F85" t="n">
+        <v>16961.44188407176</v>
+      </c>
+      <c r="G85" t="n">
+        <v>28269.06980678627</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>7150.649209679706</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5362.986907259779</v>
+      </c>
+      <c r="G86" t="n">
+        <v>8938.311512099634</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>7865.695061063233</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5899.271295797424</v>
+      </c>
+      <c r="G87" t="n">
+        <v>9832.118826329039</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>9295.850329111767</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6971.887746833824</v>
+      </c>
+      <c r="G88" t="n">
+        <v>11619.81291138971</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>3565.585399866681</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4671.999928354198</v>
+      </c>
+      <c r="G90" t="n">
+        <v>97687.27122922413</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>5704.93663978669</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4671.999928354198</v>
+      </c>
+      <c r="G91" t="n">
+        <v>97687.27122922413</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>16451.30311668975</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12338.47733751731</v>
+      </c>
+      <c r="G92" t="n">
+        <v>20564.12889586218</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>17966.50830666288</v>
+      </c>
+      <c r="F93" t="n">
+        <v>13474.88122999717</v>
+      </c>
+      <c r="G93" t="n">
+        <v>22458.13538332861</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>19763.11994423063</v>
+      </c>
+      <c r="F94" t="n">
+        <v>14822.33995817297</v>
+      </c>
+      <c r="G94" t="n">
+        <v>24703.89993028828</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>23356.44120211248</v>
+      </c>
+      <c r="F95" t="n">
+        <v>17517.33090158436</v>
+      </c>
+      <c r="G95" t="n">
+        <v>29195.5515026406</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>18096.43342835872</v>
+      </c>
+      <c r="F96" t="n">
+        <v>13572.32507126904</v>
+      </c>
+      <c r="G96" t="n">
+        <v>22620.5417854484</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>21386.69405169667</v>
+      </c>
+      <c r="F97" t="n">
+        <v>16040.02053877251</v>
+      </c>
+      <c r="G97" t="n">
+        <v>26733.36756462084</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>26815.62408020429</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20111.71806015321</v>
+      </c>
+      <c r="G98" t="n">
+        <v>33519.53010025536</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>29497.21588304863</v>
+      </c>
+      <c r="F99" t="n">
+        <v>22122.91191228647</v>
+      </c>
+      <c r="G99" t="n">
+        <v>36871.51985381079</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>34860.30150599094</v>
+      </c>
+      <c r="F100" t="n">
+        <v>26145.2261294932</v>
+      </c>
+      <c r="G100" t="n">
+        <v>43575.37688248868</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>11022.37308818213</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8266.779816136597</v>
+      </c>
+      <c r="G101" t="n">
+        <v>13777.96636022766</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>12124.58100217643</v>
+      </c>
+      <c r="F102" t="n">
+        <v>9093.435751632323</v>
+      </c>
+      <c r="G102" t="n">
+        <v>15155.72625272054</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>14329.09481291141</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10746.82110968355</v>
+      </c>
+      <c r="G103" t="n">
+        <v>17911.36851613926</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>3828.630316575571</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5016.668669723797</v>
+      </c>
+      <c r="G105" t="n">
+        <v>104893.981276043</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>6125.808506520913</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5016.668669723797</v>
+      </c>
+      <c r="G106" t="n">
+        <v>104893.981276043</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>21898.41488959362</v>
+      </c>
+      <c r="F107" t="n">
+        <v>16423.81116719522</v>
+      </c>
+      <c r="G107" t="n">
+        <v>27373.01861199203</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>23915.31237531533</v>
+      </c>
+      <c r="F108" t="n">
+        <v>17936.4842814865</v>
+      </c>
+      <c r="G108" t="n">
+        <v>29894.14046914417</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>26306.79144271015</v>
+      </c>
+      <c r="F109" t="n">
+        <v>19730.09358203261</v>
+      </c>
+      <c r="G109" t="n">
+        <v>32883.48930338768</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>31089.88000284158</v>
+      </c>
+      <c r="F110" t="n">
+        <v>23317.41000213118</v>
+      </c>
+      <c r="G110" t="n">
+        <v>38862.35000355197</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>24088.25637855299</v>
+      </c>
+      <c r="F111" t="n">
+        <v>18066.19228391474</v>
+      </c>
+      <c r="G111" t="n">
+        <v>30110.32047319123</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>28467.93935647171</v>
+      </c>
+      <c r="F112" t="n">
+        <v>21350.95451735378</v>
+      </c>
+      <c r="G112" t="n">
+        <v>35584.92419558964</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>35694.41627003761</v>
+      </c>
+      <c r="F113" t="n">
+        <v>26770.8122025282</v>
+      </c>
+      <c r="G113" t="n">
+        <v>44618.02033754701</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>39263.89702464391</v>
+      </c>
+      <c r="F114" t="n">
+        <v>29447.92276848293</v>
+      </c>
+      <c r="G114" t="n">
+        <v>49079.87128080489</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>46402.7281085147</v>
+      </c>
+      <c r="F115" t="n">
+        <v>34802.04608138603</v>
+      </c>
+      <c r="G115" t="n">
+        <v>58003.4101356434</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>14671.93797602773</v>
+      </c>
+      <c r="F116" t="n">
+        <v>11003.9534820208</v>
+      </c>
+      <c r="G116" t="n">
+        <v>18339.92247003466</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>16139.09264602796</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12104.31948452097</v>
+      </c>
+      <c r="G117" t="n">
+        <v>20173.86580753494</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>19073.53241137023</v>
+      </c>
+      <c r="F118" t="n">
+        <v>14305.14930852767</v>
+      </c>
+      <c r="G118" t="n">
+        <v>23841.91551421279</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>4084.722100629669</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5352.226695286047</v>
+      </c>
+      <c r="G120" t="n">
+        <v>111910.1945377992</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>6535.55536100747</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5352.226695286047</v>
+      </c>
+      <c r="G121" t="n">
+        <v>111910.1945377992</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>27436.22236987076</v>
+      </c>
+      <c r="F122" t="n">
+        <v>20577.16677740307</v>
+      </c>
+      <c r="G122" t="n">
+        <v>34295.27796233845</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>29963.16544746266</v>
+      </c>
+      <c r="F123" t="n">
+        <v>22472.374085597</v>
+      </c>
+      <c r="G123" t="n">
+        <v>37453.95680932833</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>32959.41662896326</v>
+      </c>
+      <c r="F124" t="n">
+        <v>24719.56247172245</v>
+      </c>
+      <c r="G124" t="n">
+        <v>41199.27078620408</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>38952.08240007863</v>
+      </c>
+      <c r="F125" t="n">
+        <v>29214.06180005897</v>
+      </c>
+      <c r="G125" t="n">
+        <v>48690.10300009829</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>30179.84460685783</v>
+      </c>
+      <c r="F126" t="n">
+        <v>22634.88345514338</v>
+      </c>
+      <c r="G126" t="n">
+        <v>37724.80575857229</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>35667.08908083199</v>
+      </c>
+      <c r="F127" t="n">
+        <v>26750.31681062399</v>
+      </c>
+      <c r="G127" t="n">
+        <v>44583.86135103998</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>44721.04246288934</v>
+      </c>
+      <c r="F128" t="n">
+        <v>33540.781847167</v>
+      </c>
+      <c r="G128" t="n">
+        <v>55901.30307861167</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>49193.19573161252</v>
+      </c>
+      <c r="F129" t="n">
+        <v>36894.89679870939</v>
+      </c>
+      <c r="G129" t="n">
+        <v>61491.49466451565</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>58137.33886094472</v>
+      </c>
+      <c r="F130" t="n">
+        <v>43603.00414570854</v>
+      </c>
+      <c r="G130" t="n">
+        <v>72671.67357618091</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>18382.26898781341</v>
+      </c>
+      <c r="F131" t="n">
+        <v>13786.70174086005</v>
+      </c>
+      <c r="G131" t="n">
+        <v>22977.83623476676</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>20220.44686416049</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15165.33514812037</v>
+      </c>
+      <c r="G132" t="n">
+        <v>25275.55858020062</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>23896.96602496885</v>
+      </c>
+      <c r="F133" t="n">
+        <v>17922.72451872663</v>
+      </c>
+      <c r="G133" t="n">
+        <v>29871.20753121106</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>4310.733276711498</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5648.369987352767</v>
+      </c>
+      <c r="G135" t="n">
+        <v>118102.2815537397</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>6897.173242738396</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5648.369987352767</v>
+      </c>
+      <c r="G136" t="n">
+        <v>118102.2815537397</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
           <t>rp1000</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>269150.0283594651</v>
-      </c>
-      <c r="F11" t="n">
-        <v>116758.1844922085</v>
-      </c>
-      <c r="G11" t="n">
-        <v>555899.8161042723</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>31724.83240211523</v>
+      </c>
+      <c r="F137" t="n">
+        <v>23793.62430158643</v>
+      </c>
+      <c r="G137" t="n">
+        <v>39656.04050264404</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>34646.76693616115</v>
+      </c>
+      <c r="F138" t="n">
+        <v>25985.07520212087</v>
+      </c>
+      <c r="G138" t="n">
+        <v>43308.45867020144</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>38111.36804947375</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28583.52603710531</v>
+      </c>
+      <c r="G139" t="n">
+        <v>47639.21006184218</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>45040.75922685774</v>
+      </c>
+      <c r="F140" t="n">
+        <v>33780.56942014331</v>
+      </c>
+      <c r="G140" t="n">
+        <v>56300.94903357218</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>34897.31564232676</v>
+      </c>
+      <c r="F141" t="n">
+        <v>26172.98673174507</v>
+      </c>
+      <c r="G141" t="n">
+        <v>43621.64455290845</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>41242.28212274981</v>
+      </c>
+      <c r="F142" t="n">
+        <v>30931.71159206235</v>
+      </c>
+      <c r="G142" t="n">
+        <v>51552.85265343726</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>51711.47681544784</v>
+      </c>
+      <c r="F143" t="n">
+        <v>38783.60761158587</v>
+      </c>
+      <c r="G143" t="n">
+        <v>64639.3460193098</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>56882.68118222025</v>
+      </c>
+      <c r="F144" t="n">
+        <v>42662.01088666519</v>
+      </c>
+      <c r="G144" t="n">
+        <v>71103.35147777532</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>67224.90096500629</v>
+      </c>
+      <c r="F145" t="n">
+        <v>50418.67572375472</v>
+      </c>
+      <c r="G145" t="n">
+        <v>84031.1262062579</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>21255.63770941721</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15941.7282820629</v>
+      </c>
+      <c r="G146" t="n">
+        <v>26569.54713677151</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>23381.14479513129</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17535.85859634847</v>
+      </c>
+      <c r="G147" t="n">
+        <v>29226.43099391411</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>27632.34791731825</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20724.26093798869</v>
+      </c>
+      <c r="G148" t="n">
+        <v>34540.43489664781</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>4483.333398369447</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5874.528574397131</v>
+      </c>
+      <c r="G150" t="n">
+        <v>122831.0520101218</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>7173.333437391114</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5874.528574397131</v>
+      </c>
+      <c r="G151" t="n">
+        <v>122831.0520101218</v>
       </c>
     </row>
   </sheetData>
